--- a/浙江正蓝2017年收入成本分析.xlsx
+++ b/浙江正蓝2017年收入成本分析.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qiqiang\Desktop\正蓝数据(1)\正蓝数据\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\IDEA项目\JAVA-TEST\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43479C1E-3FED-4E8A-BE89-DECF64E47AD7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1925ED38-DEED-4B8D-99A5-1530BFE91C4C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2017年收入" sheetId="18" r:id="rId1"/>
@@ -3225,7 +3225,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="N6" sqref="N6"/>
+      <selection pane="bottomRight" activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12"/>
